--- a/Onion price forecasting/MonthWiseMarketArrivals_ChennaiClean.xlsx
+++ b/Onion price forecasting/MonthWiseMarketArrivals_ChennaiClean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hari Prasad\Desktop\Supply chain analytics\Onion price\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Onion-price-forecasting-and-supply-chain-analytics\Onion price forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0F1898C0-ABB7-4E78-AB5E-79BD8ACF1D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BC29F0-85B7-4A36-B6FD-45207DC2ED8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthWiseMarketArrivals_Chennai" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="21">
   <si>
     <t>market</t>
   </si>
@@ -88,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -923,11 +929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="I199" sqref="I199"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H211" sqref="H211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6262,10 +6268,141 @@
         <v>44166</v>
       </c>
     </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206">
+        <v>2021</v>
+      </c>
+      <c r="D206">
+        <v>35000</v>
+      </c>
+      <c r="E206">
+        <v>2671</v>
+      </c>
+      <c r="F206">
+        <v>3282</v>
+      </c>
+      <c r="G206">
+        <v>2976</v>
+      </c>
+      <c r="H206" s="1">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207">
+        <v>2021</v>
+      </c>
+      <c r="D207">
+        <v>33880</v>
+      </c>
+      <c r="E207">
+        <v>3444</v>
+      </c>
+      <c r="F207">
+        <v>4544</v>
+      </c>
+      <c r="G207">
+        <v>4211</v>
+      </c>
+      <c r="H207" s="1">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208">
+        <v>2021</v>
+      </c>
+      <c r="D208">
+        <v>26700</v>
+      </c>
+      <c r="E208">
+        <v>3040</v>
+      </c>
+      <c r="F208">
+        <v>3520</v>
+      </c>
+      <c r="G208">
+        <v>3300</v>
+      </c>
+      <c r="H208" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209">
+        <v>2021</v>
+      </c>
+      <c r="D209">
+        <v>15000</v>
+      </c>
+      <c r="E209">
+        <v>1000</v>
+      </c>
+      <c r="F209">
+        <v>1300</v>
+      </c>
+      <c r="G209">
+        <v>1100</v>
+      </c>
+      <c r="H209" s="1">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210">
+        <v>2021</v>
+      </c>
+      <c r="D210">
+        <v>13000</v>
+      </c>
+      <c r="E210">
+        <v>900</v>
+      </c>
+      <c r="F210">
+        <v>1400</v>
+      </c>
+      <c r="G210">
+        <v>1150</v>
+      </c>
+      <c r="H210" s="1">
+        <v>44317</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H205">
     <sortCondition ref="H2:H205"/>
   </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>